--- a/MCS_Sim/DATA/ETF_backTrade.xlsx
+++ b/MCS_Sim/DATA/ETF_backTrade.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpcxy\PycharmProjects\CTZQZG_public\MCS_Sim\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440E26F-1548-43BF-8365-18ADC42F2B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,15 +55,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,8 +71,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,18 +123,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -151,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +216,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +268,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,14 +461,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I248" sqref="I248"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,107 +494,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42730</v>
       </c>
       <c r="B2">
-        <v>6294.7546</v>
+        <v>6294.7546000000002</v>
       </c>
       <c r="C2">
-        <v>0.06127797191058341</v>
+        <v>6.1277971910583408E-2</v>
       </c>
       <c r="D2">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E2">
-        <v>0.9951</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42731</v>
       </c>
       <c r="B3">
-        <v>6288.8594</v>
+        <v>6288.8594000000003</v>
       </c>
       <c r="C3">
-        <v>0.06127797191058341</v>
+        <v>6.1277971910583408E-2</v>
       </c>
       <c r="D3">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E3">
-        <v>0.9937</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42732</v>
       </c>
       <c r="B4">
-        <v>6270.2395</v>
+        <v>6270.2394999999997</v>
       </c>
       <c r="C4">
-        <v>0.06127797191058341</v>
+        <v>6.1277971910583408E-2</v>
       </c>
       <c r="D4">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E4">
-        <v>0.9944</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42733</v>
       </c>
       <c r="B5">
-        <v>6252.6076</v>
+        <v>6252.6076000000003</v>
       </c>
       <c r="C5">
-        <v>0.06127797191058341</v>
+        <v>6.1277971910583408E-2</v>
       </c>
       <c r="D5">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E5">
-        <v>0.994</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42734</v>
       </c>
       <c r="B6">
-        <v>6263.6256</v>
+        <v>6263.6256000000003</v>
       </c>
       <c r="C6">
-        <v>0.06127797191058341</v>
+        <v>6.1277971910583408E-2</v>
       </c>
       <c r="D6">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E6">
-        <v>0.9954</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>42738</v>
       </c>
@@ -527,70 +602,70 @@
         <v>6320.7626</v>
       </c>
       <c r="C7">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D7">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E7">
-        <v>0.9946</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>42739</v>
       </c>
       <c r="B8">
-        <v>6394.6694</v>
+        <v>6394.6693999999998</v>
       </c>
       <c r="C8">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D8">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E8">
-        <v>0.9923999999999999</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>42740</v>
       </c>
       <c r="B9">
-        <v>6399.2841</v>
+        <v>6399.2840999999999</v>
       </c>
       <c r="C9">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D9">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E9">
-        <v>0.9942</v>
+        <v>0.99419999999999997</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42741</v>
       </c>
       <c r="B10">
-        <v>6371.6168</v>
+        <v>6371.6167999999998</v>
       </c>
       <c r="C10">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D10">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E10">
         <v>0.9929</v>
@@ -599,38 +674,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42744</v>
       </c>
       <c r="B11">
-        <v>6415.4176</v>
+        <v>6415.4175999999998</v>
       </c>
       <c r="C11">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D11">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E11">
-        <v>0.9926</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42745</v>
       </c>
       <c r="B12">
-        <v>6393.9283</v>
+        <v>6393.9282999999996</v>
       </c>
       <c r="C12">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D12">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E12">
         <v>0.9929</v>
@@ -639,18 +714,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42746</v>
       </c>
       <c r="B13">
-        <v>6331.9638</v>
+        <v>6331.9638000000004</v>
       </c>
       <c r="C13">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D13">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E13">
         <v>0.9929</v>
@@ -659,58 +734,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42747</v>
       </c>
       <c r="B14">
-        <v>6272.851</v>
+        <v>6272.8509999999997</v>
       </c>
       <c r="C14">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D14">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E14">
-        <v>0.9925</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42748</v>
       </c>
       <c r="B15">
-        <v>6194.6575</v>
+        <v>6194.6575000000003</v>
       </c>
       <c r="C15">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D15">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E15">
-        <v>0.9922</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42751</v>
       </c>
       <c r="B16">
-        <v>6031.2414</v>
+        <v>6031.2413999999999</v>
       </c>
       <c r="C16">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D16">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E16">
         <v>0.9929</v>
@@ -719,215 +794,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42752</v>
       </c>
       <c r="B17">
-        <v>6082.0657</v>
+        <v>6082.0657000000001</v>
       </c>
       <c r="C17">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D17">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E17">
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42753</v>
       </c>
       <c r="B18">
-        <v>6068.593</v>
+        <v>6068.5929999999998</v>
       </c>
       <c r="C18">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D18">
-        <v>-0.2101879607670809</v>
+        <v>-0.21018796076708091</v>
       </c>
       <c r="E18">
-        <v>0.9901</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42754</v>
       </c>
       <c r="B19">
-        <v>6043.675</v>
+        <v>6043.6750000000002</v>
       </c>
       <c r="C19">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D19">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E19">
-        <v>0.9671999999999999</v>
+        <v>0.96719999999999995</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42755</v>
       </c>
       <c r="B20">
-        <v>6121.9983</v>
+        <v>6121.9983000000002</v>
       </c>
       <c r="C20">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D20">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E20">
-        <v>0.9641</v>
+        <v>0.96409999999999996</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42758</v>
       </c>
       <c r="B21">
-        <v>6172.1671</v>
+        <v>6172.1670999999997</v>
       </c>
       <c r="C21">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D21">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E21">
-        <v>0.9629</v>
+        <v>0.96289999999999998</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42759</v>
       </c>
       <c r="B22">
-        <v>6165.2642</v>
+        <v>6165.2641999999996</v>
       </c>
       <c r="C22">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D22">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E22">
-        <v>0.9918</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42760</v>
       </c>
       <c r="B23">
-        <v>6179.5681</v>
+        <v>6179.5681000000004</v>
       </c>
       <c r="C23">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D23">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E23">
-        <v>0.9913</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42761</v>
       </c>
       <c r="B24">
-        <v>6223.7061</v>
+        <v>6223.7061000000003</v>
       </c>
       <c r="C24">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D24">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E24">
-        <v>0.9903</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42769</v>
       </c>
       <c r="B25">
-        <v>6207.0921</v>
+        <v>6207.0920999999998</v>
       </c>
       <c r="C25">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D25">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E25">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42772</v>
       </c>
       <c r="B26">
-        <v>6259.2471</v>
+        <v>6259.2470999999996</v>
       </c>
       <c r="C26">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D26">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E26">
-        <v>0.9932</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42773</v>
       </c>
       <c r="B27">
-        <v>6255.927</v>
+        <v>6255.9269999999997</v>
       </c>
       <c r="C27">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D27">
         <v>-0.1013677308408638</v>
@@ -939,115 +1014,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42774</v>
       </c>
       <c r="B28">
-        <v>6291.5977</v>
+        <v>6291.5977000000003</v>
       </c>
       <c r="C28">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D28">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E28">
-        <v>0.9925</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42775</v>
       </c>
       <c r="B29">
-        <v>6331.1771</v>
+        <v>6331.1770999999999</v>
       </c>
       <c r="C29">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D29">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E29">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42776</v>
       </c>
       <c r="B30">
-        <v>6337.1081</v>
+        <v>6337.1081000000004</v>
       </c>
       <c r="C30">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D30">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E30">
-        <v>0.9935</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42779</v>
       </c>
       <c r="B31">
-        <v>6369.6526</v>
+        <v>6369.6526000000003</v>
       </c>
       <c r="C31">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D31">
         <v>-0.1013677308408638</v>
       </c>
       <c r="E31">
-        <v>0.9957</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42780</v>
       </c>
       <c r="B32">
-        <v>6374.8852</v>
+        <v>6374.8851999999997</v>
       </c>
       <c r="C32">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D32">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E32">
-        <v>0.9993</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42781</v>
       </c>
       <c r="B33">
-        <v>6311.6959</v>
+        <v>6311.6958999999997</v>
       </c>
       <c r="C33">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D33">
         <v>-0.2251177692554947</v>
@@ -1059,47 +1134,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42782</v>
       </c>
       <c r="B34">
-        <v>6359.3361</v>
+        <v>6359.3361000000004</v>
       </c>
       <c r="C34">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D34">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E34">
-        <v>0.9991</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42783</v>
       </c>
       <c r="B35">
-        <v>6307.1627</v>
+        <v>6307.1626999999999</v>
       </c>
       <c r="C35">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D35">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E35">
-        <v>0.9995000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42786</v>
       </c>
@@ -1107,27 +1182,27 @@
         <v>6385.0625</v>
       </c>
       <c r="C36">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D36">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E36">
-        <v>0.9971</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42787</v>
       </c>
       <c r="B37">
-        <v>6434.4383</v>
+        <v>6434.4382999999998</v>
       </c>
       <c r="C37">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D37">
         <v>-0.2251177692554947</v>
@@ -1139,35 +1214,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42788</v>
       </c>
       <c r="B38">
-        <v>6474.225</v>
+        <v>6474.2250000000004</v>
       </c>
       <c r="C38">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D38">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E38">
-        <v>0.9985000000000001</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42789</v>
       </c>
       <c r="B39">
-        <v>6473.993</v>
+        <v>6473.9930000000004</v>
       </c>
       <c r="C39">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D39">
         <v>-0.2251177692554947</v>
@@ -1179,35 +1254,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42790</v>
       </c>
       <c r="B40">
-        <v>6476.1655</v>
+        <v>6476.1655000000001</v>
       </c>
       <c r="C40">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D40">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E40">
-        <v>0.9992</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>42793</v>
       </c>
       <c r="B41">
-        <v>6424.2549</v>
+        <v>6424.2548999999999</v>
       </c>
       <c r="C41">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D41">
         <v>-0.2251177692554947</v>
@@ -1219,27 +1294,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42794</v>
       </c>
       <c r="B42">
-        <v>6450.9701</v>
+        <v>6450.9700999999995</v>
       </c>
       <c r="C42">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D42">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E42">
-        <v>0.9979</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42795</v>
       </c>
@@ -1247,67 +1322,67 @@
         <v>6467.6385</v>
       </c>
       <c r="C43">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D43">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E43">
-        <v>0.9986</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42796</v>
       </c>
       <c r="B44">
-        <v>6434.6262</v>
+        <v>6434.6261999999997</v>
       </c>
       <c r="C44">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D44">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E44">
-        <v>0.9983</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42797</v>
       </c>
       <c r="B45">
-        <v>6452.839</v>
+        <v>6452.8389999999999</v>
       </c>
       <c r="C45">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D45">
         <v>-0.2251177692554947</v>
       </c>
       <c r="E45">
-        <v>0.9992</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42800</v>
       </c>
       <c r="B46">
-        <v>6517.3235</v>
+        <v>6517.3235000000004</v>
       </c>
       <c r="C46">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D46">
         <v>-0.2251177692554947</v>
@@ -1319,15 +1394,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42801</v>
       </c>
       <c r="B47">
-        <v>6523.1868</v>
+        <v>6523.1868000000004</v>
       </c>
       <c r="C47">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D47">
         <v>-0.2251177692554947</v>
@@ -1339,15 +1414,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42802</v>
       </c>
       <c r="B48">
-        <v>6497.0878</v>
+        <v>6497.0878000000002</v>
       </c>
       <c r="C48">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D48">
         <v>-0.2251177692554947</v>
@@ -1359,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42803</v>
       </c>
@@ -1367,7 +1442,7 @@
         <v>6439.3822</v>
       </c>
       <c r="C49">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D49">
         <v>-0.2251177692554947</v>
@@ -1379,15 +1454,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42804</v>
       </c>
       <c r="B50">
-        <v>6447.9165</v>
+        <v>6447.9165000000003</v>
       </c>
       <c r="C50">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D50">
         <v>-0.2251177692554947</v>
@@ -1399,15 +1474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42807</v>
       </c>
       <c r="B51">
-        <v>6507.8964</v>
+        <v>6507.8963999999996</v>
       </c>
       <c r="C51">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D51">
         <v>-0.2251177692554947</v>
@@ -1419,15 +1494,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42808</v>
       </c>
       <c r="B52">
-        <v>6493.4846</v>
+        <v>6493.4845999999998</v>
       </c>
       <c r="C52">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D52">
         <v>-0.2251177692554947</v>
@@ -1439,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42809</v>
       </c>
@@ -1447,7 +1522,7 @@
         <v>6486.0616</v>
       </c>
       <c r="C53">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D53">
         <v>-0.2251177692554947</v>
@@ -1459,58 +1534,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42810</v>
       </c>
       <c r="B54">
-        <v>6543.3407</v>
+        <v>6543.3406999999997</v>
       </c>
       <c r="C54">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D54">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E54">
-        <v>0.9999</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42811</v>
       </c>
       <c r="B55">
-        <v>6483.2463</v>
+        <v>6483.2462999999998</v>
       </c>
       <c r="C55">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D55">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E55">
-        <v>0.9993</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42814</v>
       </c>
       <c r="B56">
-        <v>6498.3416</v>
+        <v>6498.3415999999997</v>
       </c>
       <c r="C56">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D56">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E56">
         <v>0.999</v>
@@ -1519,107 +1594,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42815</v>
       </c>
       <c r="B57">
-        <v>6515.9458</v>
+        <v>6515.9458000000004</v>
       </c>
       <c r="C57">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D57">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E57">
-        <v>0.9997</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42816</v>
       </c>
       <c r="B58">
-        <v>6499.7928</v>
+        <v>6499.7928000000002</v>
       </c>
       <c r="C58">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D58">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E58">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42817</v>
       </c>
       <c r="B59">
-        <v>6512.1874</v>
+        <v>6512.1873999999998</v>
       </c>
       <c r="C59">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D59">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E59">
-        <v>0.9995000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42818</v>
       </c>
       <c r="B60">
-        <v>6546.615</v>
+        <v>6546.6149999999998</v>
       </c>
       <c r="C60">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D60">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E60">
-        <v>0.9988</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42821</v>
       </c>
       <c r="B61">
-        <v>6516.0326</v>
+        <v>6516.0325999999995</v>
       </c>
       <c r="C61">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D61">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E61">
-        <v>0.9988</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42822</v>
       </c>
@@ -1627,30 +1702,30 @@
         <v>6498.6902</v>
       </c>
       <c r="C62">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D62">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E62">
-        <v>0.9993</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42823</v>
       </c>
       <c r="B63">
-        <v>6480.543</v>
+        <v>6480.5429999999997</v>
       </c>
       <c r="C63">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D63">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1659,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42824</v>
       </c>
@@ -1667,30 +1742,30 @@
         <v>6375.7437</v>
       </c>
       <c r="C64">
-        <v>0.0570547165980213</v>
+        <v>5.7054716598021298E-2</v>
       </c>
       <c r="D64">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E64">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42825</v>
       </c>
       <c r="B65">
-        <v>6401.6479</v>
+        <v>6401.6478999999999</v>
       </c>
       <c r="C65">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D65">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1699,158 +1774,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42830</v>
       </c>
       <c r="B66">
-        <v>6539.9665</v>
+        <v>6539.9665000000005</v>
       </c>
       <c r="C66">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D66">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E66">
-        <v>0.9997</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42831</v>
       </c>
       <c r="B67">
-        <v>6559.6526</v>
+        <v>6559.6526000000003</v>
       </c>
       <c r="C67">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D67">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E67">
-        <v>0.9997</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42832</v>
       </c>
       <c r="B68">
-        <v>6578.726</v>
+        <v>6578.7259999999997</v>
       </c>
       <c r="C68">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D68">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E68">
-        <v>0.9997</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42835</v>
       </c>
       <c r="B69">
-        <v>6566.5441</v>
+        <v>6566.5441000000001</v>
       </c>
       <c r="C69">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D69">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E69">
-        <v>0.9996</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42836</v>
       </c>
       <c r="B70">
-        <v>6629.1661</v>
+        <v>6629.1661000000004</v>
       </c>
       <c r="C70">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D70">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E70">
-        <v>0.9996</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42837</v>
       </c>
       <c r="B71">
-        <v>6576.4761</v>
+        <v>6576.4760999999999</v>
       </c>
       <c r="C71">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D71">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E71">
-        <v>0.9999</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42838</v>
       </c>
       <c r="B72">
-        <v>6615.7042</v>
+        <v>6615.7042000000001</v>
       </c>
       <c r="C72">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D72">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E72">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42839</v>
       </c>
       <c r="B73">
-        <v>6528.1624</v>
+        <v>6528.1624000000002</v>
       </c>
       <c r="C73">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D73">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E73">
         <v>0.999</v>
@@ -1859,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42842</v>
       </c>
@@ -1867,30 +1942,30 @@
         <v>6456.598</v>
       </c>
       <c r="C74">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D74">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E74">
-        <v>0.9995000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>42843</v>
       </c>
       <c r="B75">
-        <v>6418.2114</v>
+        <v>6418.2114000000001</v>
       </c>
       <c r="C75">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D75">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E75">
         <v>0.998</v>
@@ -1899,78 +1974,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>42844</v>
       </c>
       <c r="B76">
-        <v>6350.6465</v>
+        <v>6350.6464999999998</v>
       </c>
       <c r="C76">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D76">
-        <v>-0.1145709166063549</v>
+        <v>-0.11457091660635491</v>
       </c>
       <c r="E76">
-        <v>0.9985000000000001</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>42845</v>
       </c>
       <c r="B77">
-        <v>6347.7732</v>
+        <v>6347.7731999999996</v>
       </c>
       <c r="C77">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D77">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E77">
-        <v>0.9963</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>42846</v>
       </c>
       <c r="B78">
-        <v>6300.7128</v>
+        <v>6300.7128000000002</v>
       </c>
       <c r="C78">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D78">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E78">
-        <v>0.9963</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>42849</v>
       </c>
       <c r="B79">
-        <v>6138.5049</v>
+        <v>6138.5048999999999</v>
       </c>
       <c r="C79">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D79">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E79">
         <v>0.99</v>
@@ -1979,47 +2054,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>42850</v>
       </c>
       <c r="B80">
-        <v>6160.4612</v>
+        <v>6160.4611999999997</v>
       </c>
       <c r="C80">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D80">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E80">
-        <v>0.9901</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>42851</v>
       </c>
       <c r="B81">
-        <v>6176.3981</v>
+        <v>6176.3981000000003</v>
       </c>
       <c r="C81">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D81">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E81">
-        <v>0.9927</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>42852</v>
       </c>
@@ -2027,19 +2102,19 @@
         <v>6192.3044</v>
       </c>
       <c r="C82">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D82">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E82">
-        <v>0.9925</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>42853</v>
       </c>
@@ -2047,59 +2122,59 @@
         <v>6211.8624</v>
       </c>
       <c r="C83">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D83">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E83">
-        <v>0.9935</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>42857</v>
       </c>
       <c r="B84">
-        <v>6216.115</v>
+        <v>6216.1149999999998</v>
       </c>
       <c r="C84">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D84">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E84">
-        <v>0.9933999999999999</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>42858</v>
       </c>
       <c r="B85">
-        <v>6197.4779</v>
+        <v>6197.4778999999999</v>
       </c>
       <c r="C85">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D85">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E85">
-        <v>0.9907</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>42859</v>
       </c>
@@ -2107,30 +2182,30 @@
         <v>6176.3053</v>
       </c>
       <c r="C86">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D86">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E86">
-        <v>0.9911</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>42860</v>
       </c>
       <c r="B87">
-        <v>6089.6828</v>
+        <v>6089.6827999999996</v>
       </c>
       <c r="C87">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D87">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E87">
         <v>0.9929</v>
@@ -2139,38 +2214,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>42863</v>
       </c>
       <c r="B88">
-        <v>5975.5395</v>
+        <v>5975.5394999999999</v>
       </c>
       <c r="C88">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D88">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E88">
-        <v>0.9883</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>42864</v>
       </c>
       <c r="B89">
-        <v>6012.0016</v>
+        <v>6012.0015999999996</v>
       </c>
       <c r="C89">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D89">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E89">
         <v>0.9889</v>
@@ -2179,187 +2254,187 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>42865</v>
       </c>
       <c r="B90">
-        <v>5885.841</v>
+        <v>5885.8410000000003</v>
       </c>
       <c r="C90">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D90">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E90">
-        <v>0.9852</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>42866</v>
       </c>
       <c r="B91">
-        <v>5872.6391</v>
+        <v>5872.6391000000003</v>
       </c>
       <c r="C91">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D91">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E91">
-        <v>0.9873</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>42867</v>
       </c>
       <c r="B92">
-        <v>5863.7832</v>
+        <v>5863.7831999999999</v>
       </c>
       <c r="C92">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D92">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E92">
-        <v>0.9872</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>42870</v>
       </c>
       <c r="B93">
-        <v>5893.5075</v>
+        <v>5893.5074999999997</v>
       </c>
       <c r="C93">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D93">
-        <v>-0.0705336566171601</v>
+        <v>-7.0533656617160101E-2</v>
       </c>
       <c r="E93">
-        <v>0.9822</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>42871</v>
       </c>
       <c r="B94">
-        <v>6014.7344</v>
+        <v>6014.7344000000003</v>
       </c>
       <c r="C94">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D94">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E94">
-        <v>0.9851</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>42872</v>
       </c>
       <c r="B95">
-        <v>6027.6504</v>
+        <v>6027.6504000000004</v>
       </c>
       <c r="C95">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D95">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E95">
-        <v>0.9841</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>42873</v>
       </c>
       <c r="B96">
-        <v>5976.2998</v>
+        <v>5976.2997999999998</v>
       </c>
       <c r="C96">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D96">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E96">
-        <v>0.9913999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>42874</v>
       </c>
       <c r="B97">
-        <v>5974.9772</v>
+        <v>5974.9772000000003</v>
       </c>
       <c r="C97">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D97">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E97">
-        <v>0.9916</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>42877</v>
       </c>
       <c r="B98">
-        <v>5888.8127</v>
+        <v>5888.8127000000004</v>
       </c>
       <c r="C98">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D98">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E98">
-        <v>0.9898</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>42878</v>
       </c>
@@ -2367,170 +2442,170 @@
         <v>5764.8759</v>
       </c>
       <c r="C99">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D99">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E99">
-        <v>0.9871</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>42879</v>
       </c>
       <c r="B100">
-        <v>5799.2499</v>
+        <v>5799.2498999999998</v>
       </c>
       <c r="C100">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D100">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E100">
-        <v>0.9858</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>42880</v>
       </c>
       <c r="B101">
-        <v>5850.8006</v>
+        <v>5850.8005999999996</v>
       </c>
       <c r="C101">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D101">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E101">
-        <v>0.9863</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>42881</v>
       </c>
       <c r="B102">
-        <v>5836.9338</v>
+        <v>5836.9337999999998</v>
       </c>
       <c r="C102">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D102">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E102">
-        <v>0.9874000000000001</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>42886</v>
       </c>
       <c r="B103">
-        <v>5824.1042</v>
+        <v>5824.1041999999998</v>
       </c>
       <c r="C103">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D103">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E103">
-        <v>0.9887</v>
+        <v>0.98870000000000002</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>42887</v>
       </c>
       <c r="B104">
-        <v>5709.9994</v>
+        <v>5709.9993999999997</v>
       </c>
       <c r="C104">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D104">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E104">
-        <v>0.9868</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>42888</v>
       </c>
       <c r="B105">
-        <v>5772.5174</v>
+        <v>5772.5173999999997</v>
       </c>
       <c r="C105">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D105">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E105">
-        <v>0.9824000000000001</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>42891</v>
       </c>
       <c r="B106">
-        <v>5815.8022</v>
+        <v>5815.8022000000001</v>
       </c>
       <c r="C106">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D106">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E106">
-        <v>0.9831</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>42892</v>
       </c>
       <c r="B107">
-        <v>5841.5232</v>
+        <v>5841.5231999999996</v>
       </c>
       <c r="C107">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D107">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E107">
         <v>0.9819</v>
@@ -2539,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>42893</v>
       </c>
@@ -2547,30 +2622,30 @@
         <v>5955.0153</v>
       </c>
       <c r="C108">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D108">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E108">
-        <v>0.9725</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>42894</v>
       </c>
       <c r="B109">
-        <v>5958.977</v>
+        <v>5958.9769999999999</v>
       </c>
       <c r="C109">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D109">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E109">
         <v>0.9778</v>
@@ -2579,98 +2654,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>42895</v>
       </c>
       <c r="B110">
-        <v>5969.2741</v>
+        <v>5969.2740999999996</v>
       </c>
       <c r="C110">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D110">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E110">
-        <v>0.9766</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>42898</v>
       </c>
       <c r="B111">
-        <v>5902.8551</v>
+        <v>5902.8550999999998</v>
       </c>
       <c r="C111">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D111">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E111">
-        <v>0.9765</v>
+        <v>0.97650000000000003</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>42899</v>
       </c>
       <c r="B112">
-        <v>5980.0566</v>
+        <v>5980.0565999999999</v>
       </c>
       <c r="C112">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D112">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E112">
-        <v>0.9766</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>42900</v>
       </c>
       <c r="B113">
-        <v>5966.4314</v>
+        <v>5966.4314000000004</v>
       </c>
       <c r="C113">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D113">
-        <v>-0.08052298819658157</v>
+        <v>-8.0522988196581574E-2</v>
       </c>
       <c r="E113">
-        <v>0.9766</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>42901</v>
       </c>
       <c r="B114">
-        <v>6021.1651</v>
+        <v>6021.1651000000002</v>
       </c>
       <c r="C114">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D114">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E114">
         <v>0.9768</v>
@@ -2679,138 +2754,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>42902</v>
       </c>
       <c r="B115">
-        <v>6012.9996</v>
+        <v>6012.9996000000001</v>
       </c>
       <c r="C115">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D115">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E115">
-        <v>0.9759</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>42905</v>
       </c>
       <c r="B116">
-        <v>6057.4115</v>
+        <v>6057.4115000000002</v>
       </c>
       <c r="C116">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D116">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E116">
-        <v>0.9782</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>42906</v>
       </c>
       <c r="B117">
-        <v>6066.9046</v>
+        <v>6066.9045999999998</v>
       </c>
       <c r="C117">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D117">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E117">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>42907</v>
       </c>
       <c r="B118">
-        <v>6078.1925</v>
+        <v>6078.1925000000001</v>
       </c>
       <c r="C118">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D118">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E118">
-        <v>0.9815</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>42908</v>
       </c>
       <c r="B119">
-        <v>5992.3352</v>
+        <v>5992.3352000000004</v>
       </c>
       <c r="C119">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D119">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E119">
-        <v>0.9792999999999999</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>42909</v>
       </c>
       <c r="B120">
-        <v>6010.3137</v>
+        <v>6010.3136999999997</v>
       </c>
       <c r="C120">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D120">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E120">
-        <v>0.9893999999999999</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>42912</v>
       </c>
       <c r="B121">
-        <v>6111.6406</v>
+        <v>6111.6405999999997</v>
       </c>
       <c r="C121">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D121">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E121">
         <v>0.9829</v>
@@ -2819,67 +2894,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>42913</v>
       </c>
       <c r="B122">
-        <v>6113.1658</v>
+        <v>6113.1657999999998</v>
       </c>
       <c r="C122">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D122">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E122">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>42914</v>
       </c>
       <c r="B123">
-        <v>6086.2112</v>
+        <v>6086.2111999999997</v>
       </c>
       <c r="C123">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D123">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E123">
-        <v>0.9841</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>42915</v>
       </c>
       <c r="B124">
-        <v>6116.9932</v>
+        <v>6116.9931999999999</v>
       </c>
       <c r="C124">
-        <v>0.1039373216538163</v>
+        <v>0.10393732165381631</v>
       </c>
       <c r="D124">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E124">
-        <v>0.9893</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>42916</v>
       </c>
@@ -2890,96 +2965,96 @@
         <v>0.1008540911247961</v>
       </c>
       <c r="D125">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E125">
-        <v>0.9858</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>42919</v>
       </c>
       <c r="B126">
-        <v>6177.3953</v>
+        <v>6177.3953000000001</v>
       </c>
       <c r="C126">
         <v>0.1008540911247961</v>
       </c>
       <c r="D126">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E126">
-        <v>0.9864000000000001</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>42920</v>
       </c>
       <c r="B127">
-        <v>6146.8527</v>
+        <v>6146.8527000000004</v>
       </c>
       <c r="C127">
         <v>0.1008540911247961</v>
       </c>
       <c r="D127">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E127">
-        <v>0.9833</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>42921</v>
       </c>
       <c r="B128">
-        <v>6193.9641</v>
+        <v>6193.9641000000001</v>
       </c>
       <c r="C128">
         <v>0.1008540911247961</v>
       </c>
       <c r="D128">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E128">
-        <v>0.9893999999999999</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>42922</v>
       </c>
       <c r="B129">
-        <v>6201.6535</v>
+        <v>6201.6535000000003</v>
       </c>
       <c r="C129">
         <v>0.1008540911247961</v>
       </c>
       <c r="D129">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E129">
-        <v>0.9927</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>42923</v>
       </c>
@@ -2990,256 +3065,256 @@
         <v>0.1008540911247961</v>
       </c>
       <c r="D130">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E130">
-        <v>0.9932</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>42926</v>
       </c>
       <c r="B131">
-        <v>6206.5568</v>
+        <v>6206.5568000000003</v>
       </c>
       <c r="C131">
         <v>0.1008540911247961</v>
       </c>
       <c r="D131">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E131">
-        <v>0.9937</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>42927</v>
       </c>
       <c r="B132">
-        <v>6128.9942</v>
+        <v>6128.9942000000001</v>
       </c>
       <c r="C132">
         <v>0.1008540911247961</v>
       </c>
       <c r="D132">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E132">
-        <v>0.9923999999999999</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>42928</v>
       </c>
       <c r="B133">
-        <v>6132.9922</v>
+        <v>6132.9921999999997</v>
       </c>
       <c r="C133">
         <v>0.1008540911247961</v>
       </c>
       <c r="D133">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E133">
-        <v>0.9933999999999999</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>42929</v>
       </c>
       <c r="B134">
-        <v>6149.9337</v>
+        <v>6149.9336999999996</v>
       </c>
       <c r="C134">
         <v>0.1008540911247961</v>
       </c>
       <c r="D134">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E134">
-        <v>0.9971</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>42930</v>
       </c>
       <c r="B135">
-        <v>6128.7397</v>
+        <v>6128.7397000000001</v>
       </c>
       <c r="C135">
         <v>0.1008540911247961</v>
       </c>
       <c r="D135">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E135">
-        <v>0.9976</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>42933</v>
       </c>
       <c r="B136">
-        <v>5876.4592</v>
+        <v>5876.4592000000002</v>
       </c>
       <c r="C136">
         <v>0.1008540911247961</v>
       </c>
       <c r="D136">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E136">
-        <v>0.9742</v>
+        <v>0.97419999999999995</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>42934</v>
       </c>
       <c r="B137">
-        <v>5938.4342</v>
+        <v>5938.4341999999997</v>
       </c>
       <c r="C137">
         <v>0.1008540911247961</v>
       </c>
       <c r="D137">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E137">
-        <v>0.9732</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>42935</v>
       </c>
       <c r="B138">
-        <v>6059.3582</v>
+        <v>6059.3581999999997</v>
       </c>
       <c r="C138">
         <v>0.1008540911247961</v>
       </c>
       <c r="D138">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E138">
-        <v>0.9762</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>42936</v>
       </c>
       <c r="B139">
-        <v>6099.2835</v>
+        <v>6099.2834999999995</v>
       </c>
       <c r="C139">
         <v>0.1008540911247961</v>
       </c>
       <c r="D139">
-        <v>-0.09592210309005612</v>
+        <v>-9.5922103090056124E-2</v>
       </c>
       <c r="E139">
-        <v>0.9695</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>42937</v>
       </c>
       <c r="B140">
-        <v>6126.1083</v>
+        <v>6126.1082999999999</v>
       </c>
       <c r="C140">
         <v>0.1008540911247961</v>
       </c>
       <c r="D140">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E140">
-        <v>0.9881</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>42940</v>
       </c>
       <c r="B141">
-        <v>6167.1282</v>
+        <v>6167.1282000000001</v>
       </c>
       <c r="C141">
         <v>0.1008540911247961</v>
       </c>
       <c r="D141">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E141">
-        <v>0.9907</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>42941</v>
       </c>
       <c r="B142">
-        <v>6153.5984</v>
+        <v>6153.5983999999999</v>
       </c>
       <c r="C142">
         <v>0.1008540911247961</v>
       </c>
       <c r="D142">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E142">
-        <v>0.9927</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>42942</v>
       </c>
@@ -3250,16 +3325,16 @@
         <v>0.1008540911247961</v>
       </c>
       <c r="D143">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E143">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>42943</v>
       </c>
@@ -3270,107 +3345,107 @@
         <v>0.1008540911247961</v>
       </c>
       <c r="D144">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E144">
-        <v>0.9912</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>42944</v>
       </c>
       <c r="B145">
-        <v>6215.4633</v>
+        <v>6215.4633000000003</v>
       </c>
       <c r="C145">
         <v>0.1008540911247961</v>
       </c>
       <c r="D145">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E145">
-        <v>0.9913</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>42947</v>
       </c>
       <c r="B146">
-        <v>6298.0004</v>
+        <v>6298.0003999999999</v>
       </c>
       <c r="C146">
         <v>0.1008540911247961</v>
       </c>
       <c r="D146">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E146">
-        <v>0.9892</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>42948</v>
       </c>
       <c r="B147">
-        <v>6286.5362</v>
+        <v>6286.5361999999996</v>
       </c>
       <c r="C147">
         <v>0.1008540911247961</v>
       </c>
       <c r="D147">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E147">
-        <v>0.9888</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="F147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>42949</v>
       </c>
       <c r="B148">
-        <v>6251.8627</v>
+        <v>6251.8626999999997</v>
       </c>
       <c r="C148">
         <v>0.1008540911247961</v>
       </c>
       <c r="D148">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E148">
-        <v>0.989</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>42950</v>
       </c>
       <c r="B149">
-        <v>6261.9676</v>
+        <v>6261.9675999999999</v>
       </c>
       <c r="C149">
         <v>0.1008540911247961</v>
       </c>
       <c r="D149">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E149">
         <v>0.9909</v>
@@ -3379,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>42951</v>
       </c>
@@ -3390,136 +3465,136 @@
         <v>0.1008540911247961</v>
       </c>
       <c r="D150">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E150">
-        <v>0.9917</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>42954</v>
       </c>
       <c r="B151">
-        <v>6303.4209</v>
+        <v>6303.4209000000001</v>
       </c>
       <c r="C151">
         <v>0.1008540911247961</v>
       </c>
       <c r="D151">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E151">
-        <v>0.9917</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>42955</v>
       </c>
       <c r="B152">
-        <v>6303.716</v>
+        <v>6303.7160000000003</v>
       </c>
       <c r="C152">
         <v>0.1008540911247961</v>
       </c>
       <c r="D152">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E152">
-        <v>0.9918</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="F152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>42956</v>
       </c>
       <c r="B153">
-        <v>6340.022</v>
+        <v>6340.0219999999999</v>
       </c>
       <c r="C153">
         <v>0.1008540911247961</v>
       </c>
       <c r="D153">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E153">
-        <v>0.9928</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>42957</v>
       </c>
       <c r="B154">
-        <v>6289.2174</v>
+        <v>6289.2174000000005</v>
       </c>
       <c r="C154">
         <v>0.1008540911247961</v>
       </c>
       <c r="D154">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E154">
-        <v>0.9923</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>42958</v>
       </c>
       <c r="B155">
-        <v>6161.1903</v>
+        <v>6161.1903000000002</v>
       </c>
       <c r="C155">
         <v>0.1008540911247961</v>
       </c>
       <c r="D155">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E155">
-        <v>0.987</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>42961</v>
       </c>
       <c r="B156">
-        <v>6292.6418</v>
+        <v>6292.6418000000003</v>
       </c>
       <c r="C156">
         <v>0.1008540911247961</v>
       </c>
       <c r="D156">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E156">
-        <v>0.9847</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>42962</v>
       </c>
@@ -3530,21 +3605,21 @@
         <v>0.1008540911247961</v>
       </c>
       <c r="D157">
-        <v>-0.1806759340649781</v>
+        <v>-0.18067593406497809</v>
       </c>
       <c r="E157">
-        <v>0.9851</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="F157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>42963</v>
       </c>
       <c r="B158">
-        <v>6318.7986</v>
+        <v>6318.7986000000001</v>
       </c>
       <c r="C158">
         <v>0.1008540911247961</v>
@@ -3553,18 +3628,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E158">
-        <v>0.9735</v>
+        <v>0.97350000000000003</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>42964</v>
       </c>
       <c r="B159">
-        <v>6366.034</v>
+        <v>6366.0339999999997</v>
       </c>
       <c r="C159">
         <v>0.1008540911247961</v>
@@ -3573,18 +3648,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E159">
-        <v>0.9702</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="F159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>42965</v>
       </c>
       <c r="B160">
-        <v>6347.7557</v>
+        <v>6347.7556999999997</v>
       </c>
       <c r="C160">
         <v>0.1008540911247961</v>
@@ -3593,18 +3668,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E160">
-        <v>0.9707</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>42968</v>
       </c>
       <c r="B161">
-        <v>6403.7803</v>
+        <v>6403.7803000000004</v>
       </c>
       <c r="C161">
         <v>0.1008540911247961</v>
@@ -3613,18 +3688,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E161">
-        <v>0.9702</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>42969</v>
       </c>
       <c r="B162">
-        <v>6375.9814</v>
+        <v>6375.9813999999997</v>
       </c>
       <c r="C162">
         <v>0.1008540911247961</v>
@@ -3633,13 +3708,13 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E162">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>42970</v>
       </c>
@@ -3653,13 +3728,13 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E163">
-        <v>0.9712</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>42971</v>
       </c>
@@ -3673,18 +3748,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E164">
-        <v>0.9707</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>42972</v>
       </c>
       <c r="B165">
-        <v>6346.5305</v>
+        <v>6346.5304999999998</v>
       </c>
       <c r="C165">
         <v>0.1008540911247961</v>
@@ -3693,13 +3768,13 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E165">
-        <v>0.9664</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="F165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>42975</v>
       </c>
@@ -3713,18 +3788,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E166">
-        <v>0.9926</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>42976</v>
       </c>
       <c r="B167">
-        <v>6408.1567</v>
+        <v>6408.1566999999995</v>
       </c>
       <c r="C167">
         <v>0.1008540911247961</v>
@@ -3733,13 +3808,13 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E167">
-        <v>0.9925</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>42977</v>
       </c>
@@ -3753,18 +3828,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E168">
-        <v>0.9948</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="F168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>42978</v>
       </c>
       <c r="B169">
-        <v>6470.4259</v>
+        <v>6470.4259000000002</v>
       </c>
       <c r="C169">
         <v>0.1008540911247961</v>
@@ -3773,18 +3848,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E169">
-        <v>0.9967</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>42979</v>
       </c>
       <c r="B170">
-        <v>6526.5046</v>
+        <v>6526.5046000000002</v>
       </c>
       <c r="C170">
         <v>0.1008540911247961</v>
@@ -3793,18 +3868,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E170">
-        <v>0.9964</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="F170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>42982</v>
       </c>
       <c r="B171">
-        <v>6564.6804</v>
+        <v>6564.6804000000002</v>
       </c>
       <c r="C171">
         <v>0.1008540911247961</v>
@@ -3813,18 +3888,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E171">
-        <v>0.9955000000000001</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>42983</v>
       </c>
       <c r="B172">
-        <v>6571.8591</v>
+        <v>6571.8590999999997</v>
       </c>
       <c r="C172">
         <v>0.1008540911247961</v>
@@ -3833,18 +3908,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E172">
-        <v>0.9959</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>42984</v>
       </c>
       <c r="B173">
-        <v>6607.1176</v>
+        <v>6607.1175999999996</v>
       </c>
       <c r="C173">
         <v>0.1008540911247961</v>
@@ -3853,18 +3928,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E173">
-        <v>0.9963</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>42985</v>
       </c>
       <c r="B174">
-        <v>6558.5963</v>
+        <v>6558.5963000000002</v>
       </c>
       <c r="C174">
         <v>0.1008540911247961</v>
@@ -3873,18 +3948,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E174">
-        <v>0.9962</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>42986</v>
       </c>
       <c r="B175">
-        <v>6574.1826</v>
+        <v>6574.1826000000001</v>
       </c>
       <c r="C175">
         <v>0.1008540911247961</v>
@@ -3893,18 +3968,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E175">
-        <v>0.9962</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>42989</v>
       </c>
       <c r="B176">
-        <v>6649.6276</v>
+        <v>6649.6275999999998</v>
       </c>
       <c r="C176">
         <v>0.1008540911247961</v>
@@ -3913,18 +3988,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E176">
-        <v>0.9945000000000001</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="F176">
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>42990</v>
       </c>
       <c r="B177">
-        <v>6644.0118</v>
+        <v>6644.0118000000002</v>
       </c>
       <c r="C177">
         <v>0.1008540911247961</v>
@@ -3933,18 +4008,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E177">
-        <v>0.9955000000000001</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="F177">
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>42991</v>
       </c>
       <c r="B178">
-        <v>6684.3798</v>
+        <v>6684.3797999999997</v>
       </c>
       <c r="C178">
         <v>0.1008540911247961</v>
@@ -3953,18 +4028,18 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E178">
-        <v>0.9955000000000001</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="F178">
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>42992</v>
       </c>
       <c r="B179">
-        <v>6672.1849</v>
+        <v>6672.1849000000002</v>
       </c>
       <c r="C179">
         <v>0.1008540911247961</v>
@@ -3973,413 +4048,413 @@
         <v>-0.1136001232892592</v>
       </c>
       <c r="E179">
-        <v>0.9953</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="F179">
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>42993</v>
       </c>
       <c r="B180">
-        <v>6622.0438</v>
+        <v>6622.0438000000004</v>
       </c>
       <c r="C180">
         <v>0.1008540911247961</v>
       </c>
       <c r="D180">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E180">
-        <v>0.9864000000000001</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="F180">
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>42996</v>
       </c>
       <c r="B181">
-        <v>6669.4548</v>
+        <v>6669.4548000000004</v>
       </c>
       <c r="C181">
         <v>0.1008540911247961</v>
       </c>
       <c r="D181">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E181">
-        <v>0.9872</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="F181">
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>42997</v>
       </c>
       <c r="B182">
-        <v>6636.0201</v>
+        <v>6636.0200999999997</v>
       </c>
       <c r="C182">
         <v>0.1008540911247961</v>
       </c>
       <c r="D182">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E182">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>42998</v>
       </c>
       <c r="B183">
-        <v>6692.4724</v>
+        <v>6692.4723999999997</v>
       </c>
       <c r="C183">
         <v>0.1008540911247961</v>
       </c>
       <c r="D183">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E183">
-        <v>0.9845</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="F183">
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>42999</v>
       </c>
       <c r="B184">
-        <v>6612.0456</v>
+        <v>6612.0456000000004</v>
       </c>
       <c r="C184">
         <v>0.1008540911247961</v>
       </c>
       <c r="D184">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E184">
-        <v>0.9825</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>43000</v>
       </c>
       <c r="B185">
-        <v>6572.0096</v>
+        <v>6572.0096000000003</v>
       </c>
       <c r="C185">
         <v>0.1008540911247961</v>
       </c>
       <c r="D185">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E185">
-        <v>0.9851</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="F185">
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>43003</v>
       </c>
       <c r="B186">
-        <v>6489.8441</v>
+        <v>6489.8441000000003</v>
       </c>
       <c r="C186">
         <v>0.1008540911247961</v>
       </c>
       <c r="D186">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E186">
-        <v>0.9917</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>43004</v>
       </c>
       <c r="B187">
-        <v>6520.7175</v>
+        <v>6520.7174999999997</v>
       </c>
       <c r="C187">
         <v>0.1008540911247961</v>
       </c>
       <c r="D187">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E187">
-        <v>0.9895</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>43005</v>
       </c>
       <c r="B188">
-        <v>6583.1401</v>
+        <v>6583.1400999999996</v>
       </c>
       <c r="C188">
         <v>0.1008540911247961</v>
       </c>
       <c r="D188">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E188">
-        <v>0.9881</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="F188">
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>43006</v>
       </c>
       <c r="B189">
-        <v>6567.7915</v>
+        <v>6567.7915000000003</v>
       </c>
       <c r="C189">
         <v>0.1008540911247961</v>
       </c>
       <c r="D189">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E189">
-        <v>0.9915</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="F189">
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>43007</v>
       </c>
       <c r="B190">
-        <v>6603.2587</v>
+        <v>6603.2587000000003</v>
       </c>
       <c r="C190">
         <v>0.1008540911247961</v>
       </c>
       <c r="D190">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E190">
-        <v>0.9913999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="F190">
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>43017</v>
       </c>
       <c r="B191">
-        <v>6678.371</v>
+        <v>6678.3710000000001</v>
       </c>
       <c r="C191">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D191">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E191">
-        <v>0.9915</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="F191">
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>43018</v>
       </c>
       <c r="B192">
-        <v>6705.4812</v>
+        <v>6705.4812000000002</v>
       </c>
       <c r="C192">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D192">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E192">
-        <v>0.9893</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="F192">
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>43019</v>
       </c>
       <c r="B193">
-        <v>6666.4696</v>
+        <v>6666.4696000000004</v>
       </c>
       <c r="C193">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D193">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E193">
-        <v>0.9898</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="F193">
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>43020</v>
       </c>
       <c r="B194">
-        <v>6659.0957</v>
+        <v>6659.0956999999999</v>
       </c>
       <c r="C194">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D194">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E194">
-        <v>0.9913999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="F194">
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>43021</v>
       </c>
       <c r="B195">
-        <v>6709.8164</v>
+        <v>6709.8163999999997</v>
       </c>
       <c r="C195">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D195">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E195">
-        <v>0.9906</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="F195">
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>43024</v>
       </c>
       <c r="B196">
-        <v>6619.2056</v>
+        <v>6619.2056000000002</v>
       </c>
       <c r="C196">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D196">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E196">
-        <v>0.9882</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="F196">
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>43025</v>
       </c>
       <c r="B197">
-        <v>6612.9428</v>
+        <v>6612.9427999999998</v>
       </c>
       <c r="C197">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D197">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E197">
-        <v>0.9892</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="F197">
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>43026</v>
       </c>
       <c r="B198">
-        <v>6563.4369</v>
+        <v>6563.4368999999997</v>
       </c>
       <c r="C198">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D198">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E198">
-        <v>0.9882</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="F198">
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>43027</v>
       </c>
       <c r="B199">
-        <v>6501.3999</v>
+        <v>6501.3999000000003</v>
       </c>
       <c r="C199">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D199">
-        <v>-0.05361308543444002</v>
+        <v>-5.3613085434440023E-2</v>
       </c>
       <c r="E199">
-        <v>0.9867</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="F199">
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>43028</v>
       </c>
@@ -4387,179 +4462,183 @@
         <v>6571.424</v>
       </c>
       <c r="C200">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D200">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E200">
-        <v>0.9916</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="F200">
         <v>-1</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200">
+        <f>MEDIAN(B2:B199)</f>
+        <v>6305.4393500000006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>43031</v>
       </c>
       <c r="B201">
-        <v>6612.7637</v>
+        <v>6612.7637000000004</v>
       </c>
       <c r="C201">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D201">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E201">
-        <v>0.993</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F201">
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>43032</v>
       </c>
       <c r="B202">
-        <v>6603.0042</v>
+        <v>6603.0042000000003</v>
       </c>
       <c r="C202">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D202">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E202">
-        <v>0.9923999999999999</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="F202">
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>43033</v>
       </c>
       <c r="B203">
-        <v>6647.892</v>
+        <v>6647.8919999999998</v>
       </c>
       <c r="C203">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D203">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E203">
-        <v>0.9928</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="F203">
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>43034</v>
       </c>
       <c r="B204">
-        <v>6671.9288</v>
+        <v>6671.9287999999997</v>
       </c>
       <c r="C204">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D204">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E204">
-        <v>0.9921</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="F204">
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>43035</v>
       </c>
       <c r="B205">
-        <v>6630.8067</v>
+        <v>6630.8067000000001</v>
       </c>
       <c r="C205">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D205">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E205">
-        <v>0.9916</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="F205">
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>43038</v>
       </c>
       <c r="B206">
-        <v>6511.7616</v>
+        <v>6511.7615999999998</v>
       </c>
       <c r="C206">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D206">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E206">
-        <v>0.9911</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="F206">
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>43039</v>
       </c>
       <c r="B207">
-        <v>6560.2054</v>
+        <v>6560.2053999999998</v>
       </c>
       <c r="C207">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D207">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E207">
-        <v>0.9903999999999999</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="F207">
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>43040</v>
       </c>
       <c r="B208">
-        <v>6552.9545</v>
+        <v>6552.9544999999998</v>
       </c>
       <c r="C208">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D208">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E208">
-        <v>0.9926</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="F208">
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>43041</v>
       </c>
@@ -4567,347 +4646,347 @@
         <v>6484.9258</v>
       </c>
       <c r="C209">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D209">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E209">
-        <v>0.9912</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="F209">
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>43042</v>
       </c>
       <c r="B210">
-        <v>6426.9799</v>
+        <v>6426.9799000000003</v>
       </c>
       <c r="C210">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D210">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E210">
-        <v>0.9907</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F210">
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>43045</v>
       </c>
       <c r="B211">
-        <v>6511.0958</v>
+        <v>6511.0958000000001</v>
       </c>
       <c r="C211">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D211">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E211">
-        <v>0.9893999999999999</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F211">
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>43046</v>
       </c>
       <c r="B212">
-        <v>6551.9363</v>
+        <v>6551.9363000000003</v>
       </c>
       <c r="C212">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D212">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E212">
-        <v>0.9908</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="F212">
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>43047</v>
       </c>
       <c r="B213">
-        <v>6561.6897</v>
+        <v>6561.6896999999999</v>
       </c>
       <c r="C213">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D213">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E213">
-        <v>0.9921</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="F213">
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>43048</v>
       </c>
       <c r="B214">
-        <v>6611.3517</v>
+        <v>6611.3517000000002</v>
       </c>
       <c r="C214">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D214">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E214">
-        <v>0.9908</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="F214">
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>43049</v>
       </c>
       <c r="B215">
-        <v>6641.2164</v>
+        <v>6641.2164000000002</v>
       </c>
       <c r="C215">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D215">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E215">
-        <v>0.993</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F215">
         <v>-1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>43052</v>
       </c>
       <c r="B216">
-        <v>6671.2054</v>
+        <v>6671.2053999999998</v>
       </c>
       <c r="C216">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D216">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E216">
-        <v>0.9961</v>
+        <v>0.99609999999999999</v>
       </c>
       <c r="F216">
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>43053</v>
       </c>
       <c r="B217">
-        <v>6614.5136</v>
+        <v>6614.5136000000002</v>
       </c>
       <c r="C217">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D217">
-        <v>-0.08217266585924576</v>
+        <v>-8.2172665859245764E-2</v>
       </c>
       <c r="E217">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="F217">
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>43054</v>
       </c>
       <c r="B218">
-        <v>6537.6563</v>
+        <v>6537.6562999999996</v>
       </c>
       <c r="C218">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D218">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E218">
-        <v>0.9946</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="F218">
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>43055</v>
       </c>
       <c r="B219">
-        <v>6558.3085</v>
+        <v>6558.3085000000001</v>
       </c>
       <c r="C219">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D219">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E219">
-        <v>0.9941</v>
+        <v>0.99409999999999998</v>
       </c>
       <c r="F219">
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>43056</v>
       </c>
       <c r="B220">
-        <v>6361.9415</v>
+        <v>6361.9414999999999</v>
       </c>
       <c r="C220">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D220">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E220">
-        <v>0.9883</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="F220">
         <v>-1</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>43059</v>
       </c>
       <c r="B221">
-        <v>6433.1702</v>
+        <v>6433.1701999999996</v>
       </c>
       <c r="C221">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D221">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E221">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F221">
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>43060</v>
       </c>
       <c r="B222">
-        <v>6456.352</v>
+        <v>6456.3519999999999</v>
       </c>
       <c r="C222">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D222">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E222">
-        <v>0.9882</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="F222">
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>43061</v>
       </c>
       <c r="B223">
-        <v>6439.4419</v>
+        <v>6439.4418999999998</v>
       </c>
       <c r="C223">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D223">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E223">
-        <v>0.9861</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="F223">
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>43062</v>
       </c>
       <c r="B224">
-        <v>6274.5116</v>
+        <v>6274.5115999999998</v>
       </c>
       <c r="C224">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D224">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E224">
-        <v>0.9814000000000001</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>43063</v>
       </c>
       <c r="B225">
-        <v>6278.0287</v>
+        <v>6278.0286999999998</v>
       </c>
       <c r="C225">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D225">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E225">
-        <v>0.9789</v>
+        <v>0.97889999999999999</v>
       </c>
       <c r="F225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>43066</v>
       </c>
       <c r="B226">
-        <v>6194.5522</v>
+        <v>6194.5522000000001</v>
       </c>
       <c r="C226">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D226">
         <v>-0.1039493286505941</v>
@@ -4919,267 +4998,267 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>43067</v>
       </c>
       <c r="B227">
-        <v>6299.3122</v>
+        <v>6299.3122000000003</v>
       </c>
       <c r="C227">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D227">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E227">
-        <v>0.9769</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>43068</v>
       </c>
       <c r="B228">
-        <v>6318.3684</v>
+        <v>6318.3684000000003</v>
       </c>
       <c r="C228">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D228">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E228">
-        <v>0.9755</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="F228">
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>43069</v>
       </c>
       <c r="B229">
-        <v>6263.421</v>
+        <v>6263.4210000000003</v>
       </c>
       <c r="C229">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D229">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E229">
-        <v>0.9752</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>43070</v>
       </c>
       <c r="B230">
-        <v>6316.4072</v>
+        <v>6316.4071999999996</v>
       </c>
       <c r="C230">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D230">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E230">
-        <v>0.9751</v>
+        <v>0.97509999999999997</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>43073</v>
       </c>
       <c r="B231">
-        <v>6279.6206</v>
+        <v>6279.6206000000002</v>
       </c>
       <c r="C231">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D231">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E231">
-        <v>0.9741</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>43074</v>
       </c>
       <c r="B232">
-        <v>6132.912</v>
+        <v>6132.9120000000003</v>
       </c>
       <c r="C232">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D232">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E232">
-        <v>0.9685</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>43075</v>
       </c>
       <c r="B233">
-        <v>6172.8031</v>
+        <v>6172.8031000000001</v>
       </c>
       <c r="C233">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D233">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E233">
-        <v>0.9681</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>43076</v>
       </c>
       <c r="B234">
-        <v>6135.4702</v>
+        <v>6135.4701999999997</v>
       </c>
       <c r="C234">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D234">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E234">
-        <v>0.9681</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>43077</v>
       </c>
       <c r="B235">
-        <v>6203.1433</v>
+        <v>6203.1432999999997</v>
       </c>
       <c r="C235">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D235">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E235">
-        <v>0.9653</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>43080</v>
       </c>
       <c r="B236">
-        <v>6286.1656</v>
+        <v>6286.1656000000003</v>
       </c>
       <c r="C236">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D236">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E236">
-        <v>0.9663</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>43081</v>
       </c>
       <c r="B237">
-        <v>6233.2115</v>
+        <v>6233.2115000000003</v>
       </c>
       <c r="C237">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D237">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E237">
-        <v>0.9669</v>
+        <v>0.96689999999999998</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>43082</v>
       </c>
       <c r="B238">
-        <v>6277.441</v>
+        <v>6277.4409999999998</v>
       </c>
       <c r="C238">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D238">
         <v>-0.1039493286505941</v>
       </c>
       <c r="E238">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>43083</v>
       </c>
       <c r="B239">
-        <v>6284.0807</v>
+        <v>6284.0807000000004</v>
       </c>
       <c r="C239">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D239">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E239">
-        <v>0.9434</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="F239">
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>43084</v>
       </c>
@@ -5187,190 +5266,190 @@
         <v>6235.7608</v>
       </c>
       <c r="C240">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D240">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E240">
-        <v>0.9518</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="F240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>43087</v>
       </c>
       <c r="B241">
-        <v>6199.9889</v>
+        <v>6199.9889000000003</v>
       </c>
       <c r="C241">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D241">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E241">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>43088</v>
       </c>
       <c r="B242">
-        <v>6251.2416</v>
+        <v>6251.2416000000003</v>
       </c>
       <c r="C242">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D242">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E242">
-        <v>0.9544</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>43089</v>
       </c>
       <c r="B243">
-        <v>6199.3628</v>
+        <v>6199.3627999999999</v>
       </c>
       <c r="C243">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D243">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E243">
-        <v>0.9515</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>43090</v>
       </c>
       <c r="B244">
-        <v>6238.4987</v>
+        <v>6238.4987000000001</v>
       </c>
       <c r="C244">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D244">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E244">
-        <v>0.9483</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>43091</v>
       </c>
       <c r="B245">
-        <v>6242.8847</v>
+        <v>6242.8846999999996</v>
       </c>
       <c r="C245">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D245">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E245">
-        <v>0.9485</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>43094</v>
       </c>
       <c r="B246">
-        <v>6185.5907</v>
+        <v>6185.5906999999997</v>
       </c>
       <c r="C246">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D246">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E246">
-        <v>0.9503</v>
+        <v>0.95030000000000003</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>43095</v>
       </c>
       <c r="B247">
-        <v>6220.1473</v>
+        <v>6220.1472999999996</v>
       </c>
       <c r="C247">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D247">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E247">
-        <v>0.9525</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>43096</v>
       </c>
       <c r="B248">
-        <v>6173.1528</v>
+        <v>6173.1527999999998</v>
       </c>
       <c r="C248">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D248">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E248">
-        <v>0.9527</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>43097</v>
       </c>
       <c r="B249">
-        <v>6204.2702</v>
+        <v>6204.2701999999999</v>
       </c>
       <c r="C249">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D249">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E249">
         <v>0.9506</v>
@@ -5379,207 +5458,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>43098</v>
       </c>
       <c r="B250">
-        <v>6250.8207</v>
+        <v>6250.8207000000002</v>
       </c>
       <c r="C250">
-        <v>0.09703096472468319</v>
+        <v>9.7030964724683186E-2</v>
       </c>
       <c r="D250">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E250">
-        <v>0.9605</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>43102</v>
       </c>
       <c r="B251">
-        <v>6332.2269</v>
+        <v>6332.2268999999997</v>
       </c>
       <c r="C251">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D251">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E251">
-        <v>0.8978</v>
+        <v>0.89780000000000004</v>
       </c>
       <c r="F251">
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>43103</v>
       </c>
       <c r="B252">
-        <v>6388.2533</v>
+        <v>6388.2533000000003</v>
       </c>
       <c r="C252">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D252">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E252">
-        <v>0.8943</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="F252">
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>43104</v>
       </c>
       <c r="B253">
-        <v>6417.535</v>
+        <v>6417.5349999999999</v>
       </c>
       <c r="C253">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D253">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E253">
-        <v>0.9035</v>
+        <v>0.90349999999999997</v>
       </c>
       <c r="F253">
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>43105</v>
       </c>
       <c r="B254">
-        <v>6417.2537</v>
+        <v>6417.2537000000002</v>
       </c>
       <c r="C254">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D254">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E254">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="F254">
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>43108</v>
       </c>
       <c r="B255">
-        <v>6446.1818</v>
+        <v>6446.1818000000003</v>
       </c>
       <c r="C255">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D255">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E255">
-        <v>0.9174</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="F255">
         <v>-1</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>43109</v>
       </c>
       <c r="B256">
-        <v>6445.7462</v>
+        <v>6445.7461999999996</v>
       </c>
       <c r="C256">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D256">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E256">
-        <v>0.9239000000000001</v>
+        <v>0.92390000000000005</v>
       </c>
       <c r="F256">
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>43110</v>
       </c>
       <c r="B257">
-        <v>6405.9395</v>
+        <v>6405.9395000000004</v>
       </c>
       <c r="C257">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D257">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E257">
-        <v>0.9366</v>
+        <v>0.93659999999999999</v>
       </c>
       <c r="F257">
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>43111</v>
       </c>
       <c r="B258">
-        <v>6425.9401</v>
+        <v>6425.9400999999998</v>
       </c>
       <c r="C258">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D258">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E258">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F258">
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>43112</v>
       </c>
       <c r="B259">
-        <v>6399.3737</v>
+        <v>6399.3737000000001</v>
       </c>
       <c r="C259">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D259">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E259">
-        <v>0.9383</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="F259">
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>43115</v>
       </c>
@@ -5587,79 +5666,79 @@
         <v>6253.3759</v>
       </c>
       <c r="C260">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D260">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E260">
-        <v>0.9262</v>
+        <v>0.92620000000000002</v>
       </c>
       <c r="F260">
         <v>-1</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>43116</v>
       </c>
       <c r="B261">
-        <v>6301.1327</v>
+        <v>6301.1327000000001</v>
       </c>
       <c r="C261">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D261">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E261">
-        <v>0.9333</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="F261">
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>43117</v>
       </c>
       <c r="B262">
-        <v>6267.4599</v>
+        <v>6267.4598999999998</v>
       </c>
       <c r="C262">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D262">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E262">
-        <v>0.9492</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="F262">
         <v>-1</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>43118</v>
       </c>
       <c r="B263">
-        <v>6286.8007</v>
+        <v>6286.8006999999998</v>
       </c>
       <c r="C263">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D263">
-        <v>-0.05208246777536738</v>
+        <v>-5.2082467775367382E-2</v>
       </c>
       <c r="E263">
-        <v>0.9483</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="F263">
         <v>-1</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>43119</v>
       </c>
@@ -5667,59 +5746,59 @@
         <v>6272.38</v>
       </c>
       <c r="C264">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D264">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E264">
-        <v>0.9578</v>
+        <v>0.95779999999999998</v>
       </c>
       <c r="F264">
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>43122</v>
       </c>
       <c r="B265">
-        <v>6347.6383</v>
+        <v>6347.6382999999996</v>
       </c>
       <c r="C265">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D265">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E265">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="F265">
         <v>-1</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>43123</v>
       </c>
       <c r="B266">
-        <v>6354.9978</v>
+        <v>6354.9978000000001</v>
       </c>
       <c r="C266">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D266">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E266">
-        <v>0.9582000000000001</v>
+        <v>0.95820000000000005</v>
       </c>
       <c r="F266">
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>43124</v>
       </c>
@@ -5727,79 +5806,79 @@
         <v>6394.2999</v>
       </c>
       <c r="C267">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D267">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E267">
-        <v>0.9596</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="F267">
         <v>-1</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>43125</v>
       </c>
       <c r="B268">
-        <v>6382.7165</v>
+        <v>6382.7165000000005</v>
       </c>
       <c r="C268">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D268">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E268">
-        <v>0.9633</v>
+        <v>0.96330000000000005</v>
       </c>
       <c r="F268">
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>43126</v>
       </c>
       <c r="B269">
-        <v>6383.6312</v>
+        <v>6383.6311999999998</v>
       </c>
       <c r="C269">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D269">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E269">
-        <v>0.9609</v>
+        <v>0.96089999999999998</v>
       </c>
       <c r="F269">
         <v>-1</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>43129</v>
       </c>
       <c r="B270">
-        <v>6309.8836</v>
+        <v>6309.8836000000001</v>
       </c>
       <c r="C270">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D270">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E270">
-        <v>0.9540999999999999</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="F270">
         <v>-1</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>43130</v>
       </c>
@@ -5807,19 +5886,19 @@
         <v>6313.442</v>
       </c>
       <c r="C271">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D271">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E271">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="F271">
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>43131</v>
       </c>
@@ -5827,19 +5906,19 @@
         <v>6189.3413</v>
       </c>
       <c r="C272">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D272">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E272">
-        <v>0.9528</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="F272">
         <v>-1</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>43132</v>
       </c>
@@ -5847,187 +5926,187 @@
         <v>5984.7428</v>
       </c>
       <c r="C273">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D273">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E273">
-        <v>0.9219000000000001</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>43133</v>
       </c>
       <c r="B274">
-        <v>6004.8494</v>
+        <v>6004.8494000000001</v>
       </c>
       <c r="C274">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D274">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E274">
-        <v>0.9219000000000001</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>43136</v>
       </c>
       <c r="B275">
-        <v>5998.2236</v>
+        <v>5998.2236000000003</v>
       </c>
       <c r="C275">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D275">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E275">
-        <v>0.9177</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>43137</v>
       </c>
       <c r="B276">
-        <v>5704.2641</v>
+        <v>5704.2641000000003</v>
       </c>
       <c r="C276">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D276">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E276">
-        <v>0.8779</v>
+        <v>0.87790000000000001</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>43138</v>
       </c>
       <c r="B277">
-        <v>5711.3322</v>
+        <v>5711.3321999999998</v>
       </c>
       <c r="C277">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D277">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E277">
-        <v>0.8776</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="F277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>43139</v>
       </c>
       <c r="B278">
-        <v>5766.4797</v>
+        <v>5766.4796999999999</v>
       </c>
       <c r="C278">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D278">
-        <v>-0.06911111515415033</v>
+        <v>-6.9111115154150332E-2</v>
       </c>
       <c r="E278">
-        <v>0.8832</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>43140</v>
       </c>
       <c r="B279">
-        <v>5554.8974</v>
+        <v>5554.8973999999998</v>
       </c>
       <c r="C279">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D279">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E279">
-        <v>0.8986</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>43143</v>
       </c>
       <c r="B280">
-        <v>5699.0979</v>
+        <v>5699.0978999999998</v>
       </c>
       <c r="C280">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D280">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E280">
-        <v>0.8976</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>43144</v>
       </c>
       <c r="B281">
-        <v>5736.9505</v>
+        <v>5736.9504999999999</v>
       </c>
       <c r="C281">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D281">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E281">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>43145</v>
       </c>
       <c r="B282">
-        <v>5754.8344</v>
+        <v>5754.8343999999997</v>
       </c>
       <c r="C282">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D282">
         <v>-0.1289701125455788</v>
@@ -6039,155 +6118,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>43153</v>
       </c>
       <c r="B283">
-        <v>5875.7272</v>
+        <v>5875.7272000000003</v>
       </c>
       <c r="C283">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D283">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E283">
-        <v>0.8875999999999999</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>43154</v>
       </c>
       <c r="B284">
-        <v>5897.6765</v>
+        <v>5897.6764999999996</v>
       </c>
       <c r="C284">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D284">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E284">
-        <v>0.8889</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="F284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>43157</v>
       </c>
       <c r="B285">
-        <v>6029.6795</v>
+        <v>6029.6795000000002</v>
       </c>
       <c r="C285">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D285">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E285">
-        <v>0.8844</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="F285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>43158</v>
       </c>
       <c r="B286">
-        <v>6010.5573</v>
+        <v>6010.5573000000004</v>
       </c>
       <c r="C286">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D286">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E286">
-        <v>0.8814</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="F286">
         <v>-1</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>43159</v>
       </c>
       <c r="B287">
-        <v>6023.677</v>
+        <v>6023.6769999999997</v>
       </c>
       <c r="C287">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D287">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E287">
-        <v>0.8838</v>
+        <v>0.88380000000000003</v>
       </c>
       <c r="F287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>43160</v>
       </c>
       <c r="B288">
-        <v>6090.2247</v>
+        <v>6090.2246999999998</v>
       </c>
       <c r="C288">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D288">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E288">
-        <v>0.8739</v>
+        <v>0.87390000000000001</v>
       </c>
       <c r="F288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>43161</v>
       </c>
       <c r="B289">
-        <v>6056.3354</v>
+        <v>6056.3353999999999</v>
       </c>
       <c r="C289">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D289">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E289">
-        <v>0.8788</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>43164</v>
       </c>
       <c r="B290">
-        <v>6064.0983</v>
+        <v>6064.0982999999997</v>
       </c>
       <c r="C290">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D290">
         <v>-0.1289701125455788</v>
@@ -6199,27 +6278,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>43165</v>
       </c>
       <c r="B291">
-        <v>6145.5768</v>
+        <v>6145.5767999999998</v>
       </c>
       <c r="C291">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D291">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E291">
-        <v>0.8786</v>
+        <v>0.87860000000000005</v>
       </c>
       <c r="F291">
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>43166</v>
       </c>
@@ -6227,27 +6306,27 @@
         <v>6086.4874</v>
       </c>
       <c r="C292">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D292">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E292">
-        <v>0.8838</v>
+        <v>0.88380000000000003</v>
       </c>
       <c r="F292">
         <v>-1</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>43167</v>
       </c>
       <c r="B293">
-        <v>6131.5142</v>
+        <v>6131.5141999999996</v>
       </c>
       <c r="C293">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D293">
         <v>-0.1289701125455788</v>
@@ -6259,47 +6338,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>43168</v>
       </c>
       <c r="B294">
-        <v>6206.9754</v>
+        <v>6206.9754000000003</v>
       </c>
       <c r="C294">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D294">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E294">
-        <v>0.8843</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="F294">
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>43171</v>
       </c>
       <c r="B295">
-        <v>6295.7776</v>
+        <v>6295.7776000000003</v>
       </c>
       <c r="C295">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D295">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E295">
-        <v>0.8864</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="F295">
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>43172</v>
       </c>
@@ -6307,19 +6386,19 @@
         <v>6254.1457</v>
       </c>
       <c r="C296">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D296">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E296">
-        <v>0.8828</v>
+        <v>0.88280000000000003</v>
       </c>
       <c r="F296">
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>43173</v>
       </c>
@@ -6327,67 +6406,67 @@
         <v>6189.317</v>
       </c>
       <c r="C297">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D297">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E297">
-        <v>0.8794</v>
+        <v>0.87939999999999996</v>
       </c>
       <c r="F297">
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>43174</v>
       </c>
       <c r="B298">
-        <v>6180.1108</v>
+        <v>6180.1108000000004</v>
       </c>
       <c r="C298">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D298">
         <v>-0.1289701125455788</v>
       </c>
       <c r="E298">
-        <v>0.8796</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="F298">
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>43175</v>
       </c>
       <c r="B299">
-        <v>6146.3058</v>
+        <v>6146.3058000000001</v>
       </c>
       <c r="C299">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D299">
         <v>-0.1046975799442228</v>
       </c>
       <c r="E299">
-        <v>0.8621</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="F299">
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>43178</v>
       </c>
       <c r="B300">
-        <v>6153.8339</v>
+        <v>6153.8338999999996</v>
       </c>
       <c r="C300">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D300">
         <v>-0.1046975799442228</v>
@@ -6399,47 +6478,49 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>43179</v>
       </c>
       <c r="B301">
-        <v>6173.6984</v>
+        <v>6173.6984000000002</v>
       </c>
       <c r="C301">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D301">
         <v>-0.1046975799442228</v>
       </c>
       <c r="E301">
-        <v>0.8687</v>
+        <v>0.86870000000000003</v>
       </c>
       <c r="F301">
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>43180</v>
       </c>
       <c r="B302">
-        <v>6129.2042</v>
+        <v>6129.2042000000001</v>
       </c>
       <c r="C302">
-        <v>-0.01635204129262962</v>
+        <v>-1.635204129262962E-2</v>
       </c>
       <c r="D302">
         <v>-0.1046975799442228</v>
       </c>
       <c r="E302">
-        <v>0.8696</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="F302">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>